--- a/foaie_parcurs_B-151-VGT_iulie_2021_Alex_Bora.xlsx
+++ b/foaie_parcurs_B-151-VGT_iulie_2021_Alex_Bora.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a049689\Desktop\pers\MING\home\a049689\tmp\parcurs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7130DDFD-C7DF-4C2F-B210-AACCF3E369E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iulie 2021" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'iulie 2021'!$A$1:$F$91</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>VOLVO ROMÂNIA</t>
   </si>
@@ -82,28 +100,13 @@
     <t>Interes Serviciu</t>
   </si>
   <si>
-    <t>Cluj-Apahida</t>
-  </si>
-  <si>
     <t>Cluj-Cluj</t>
   </si>
   <si>
     <t>Cluj-Bontida</t>
   </si>
   <si>
-    <t>Cluj-Cmp. Turzii</t>
-  </si>
-  <si>
-    <t>Cluj-Bistrita</t>
-  </si>
-  <si>
     <t>Cluj-Zalau</t>
-  </si>
-  <si>
-    <t>Cluj-Satu-Mare</t>
-  </si>
-  <si>
-    <t>Cluj-Baia-Mare</t>
   </si>
   <si>
     <t>Km parcursi:</t>
@@ -133,11 +136,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,#"/>
+    <numFmt numFmtId="164" formatCode="#,###"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -218,6 +221,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -227,6 +233,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +261,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -316,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +368,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,6 +420,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -557,42 +613,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -600,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,7 +666,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -616,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -624,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,12 +690,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -645,7 +703,7 @@
         <v>68344</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -659,7 +717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -673,21 +731,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2</v>
       </c>
       <c r="B17" s="4">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -695,7 +751,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -703,21 +759,19 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5</v>
       </c>
       <c r="B23" s="4">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>6</v>
       </c>
@@ -731,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>7</v>
       </c>
@@ -739,13 +793,13 @@
         <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -753,27 +807,25 @@
         <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>9</v>
       </c>
       <c r="B31" s="4">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -781,7 +833,7 @@
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>11</v>
       </c>
@@ -789,7 +841,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>12</v>
       </c>
@@ -803,21 +855,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>13</v>
       </c>
       <c r="B39" s="4">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>14</v>
       </c>
@@ -825,13 +875,13 @@
         <v>156</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>15</v>
       </c>
@@ -845,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>16</v>
       </c>
@@ -859,7 +909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>17</v>
       </c>
@@ -867,7 +917,7 @@
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>18</v>
       </c>
@@ -875,7 +925,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>19</v>
       </c>
@@ -883,27 +933,25 @@
         <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>20</v>
       </c>
       <c r="B53" s="4">
-        <v>421</v>
+        <v>30</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>21</v>
       </c>
@@ -917,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>22</v>
       </c>
@@ -931,7 +979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>23</v>
       </c>
@@ -945,7 +993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>24</v>
       </c>
@@ -953,7 +1001,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>25</v>
       </c>
@@ -961,7 +1009,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>26</v>
       </c>
@@ -975,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>27</v>
       </c>
@@ -989,21 +1037,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>28</v>
       </c>
       <c r="B69" s="4">
-        <v>356</v>
+        <v>30</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>29</v>
       </c>
@@ -1011,13 +1059,11 @@
         <v>92</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>30</v>
       </c>
@@ -1025,13 +1071,13 @@
         <v>156</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>31</v>
       </c>
@@ -1039,107 +1085,104 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="5">
+        <f>SUM(B15:B75)</f>
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="5">
+        <f>B76+B12</f>
+        <v>69596</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="5">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="5">
-        <v>70808</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="6" t="s">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="A82:D83"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A86:D87"/>
+    <mergeCell ref="A88:D89"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A80:D81"/>
-    <mergeCell ref="A82:D83"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A86:D87"/>
-    <mergeCell ref="A88:D89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
-    <ignoredError sqref="A1:XFD1048576" listDataValidation="1"/>
-  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>